--- a/myxl.xlsx
+++ b/myxl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mygit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC164B4-FCDB-4C4B-B3D4-9B801311C1D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3ACB30-4E85-48B0-8BE1-8C51609F3511}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>xf</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>rygkhkh</t>
+  </si>
+  <si>
+    <t>gg</t>
   </si>
 </sst>
 </file>
@@ -351,15 +354,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -369,6 +372,9 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
